--- a/Assignments/Assignment1/A1_Part_3.xlsx
+++ b/Assignments/Assignment1/A1_Part_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSMESTUDENTS\Desktop\cs1a\Assignments\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="44">
   <si>
     <t>PROGRAM TRACE TABLE</t>
   </si>
@@ -159,6 +159,27 @@
   </si>
   <si>
     <t>East</t>
+  </si>
+  <si>
+    <t>Wall 1</t>
+  </si>
+  <si>
+    <t>Wall 2</t>
+  </si>
+  <si>
+    <t>Wall 3</t>
+  </si>
+  <si>
+    <t>Street 2, Avenue 1, EAST</t>
+  </si>
+  <si>
+    <t>Street 1, Avenue 2, SOUTH</t>
+  </si>
+  <si>
+    <t>Street 2, Avenue 3, WEST</t>
+  </si>
+  <si>
+    <t>Street 3, Avenue 2, SOUTH</t>
   </si>
 </sst>
 </file>
@@ -355,14 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -782,12 +803,12 @@
     <col min="1" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -795,7 +816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -804,43 +825,59 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:11" ht="22.5">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="54.75" thickBot="1">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="54.75" thickBot="1">
       <c r="A6" s="8">
         <v>13</v>
       </c>
@@ -862,8 +899,20 @@
       <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="122.25" thickBot="1">
+      <c r="H6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="122.25" thickBot="1">
       <c r="A7" s="10">
         <v>14</v>
       </c>
@@ -885,8 +934,20 @@
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="95.25" thickBot="1">
+      <c r="H7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="95.25" thickBot="1">
       <c r="A8" s="8">
         <v>15</v>
       </c>
@@ -908,8 +969,20 @@
       <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="95.25" thickBot="1">
+      <c r="H8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="95.25" thickBot="1">
       <c r="A9" s="10">
         <v>16</v>
       </c>
@@ -931,8 +1004,20 @@
       <c r="G9" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="95.25" thickBot="1">
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="95.25" thickBot="1">
       <c r="A10" s="8">
         <v>17</v>
       </c>
@@ -954,8 +1039,20 @@
       <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="95.25" thickBot="1">
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="95.25" thickBot="1">
       <c r="A11" s="10">
         <v>18</v>
       </c>
@@ -977,8 +1074,20 @@
       <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="95.25" thickBot="1">
+      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="95.25" thickBot="1">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -1000,8 +1109,20 @@
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="41.25" thickBot="1">
       <c r="A13" s="10">
         <v>20</v>
       </c>
@@ -1023,8 +1144,20 @@
       <c r="G13" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="41.25" thickBot="1">
       <c r="A14" s="8">
         <v>21</v>
       </c>
@@ -1046,8 +1179,20 @@
       <c r="G14" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="41.25" thickBot="1">
       <c r="A15" s="10">
         <v>22</v>
       </c>
@@ -1069,8 +1214,20 @@
       <c r="G15" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="41.25" thickBot="1">
       <c r="A16" s="8">
         <v>23</v>
       </c>
@@ -1092,8 +1249,20 @@
       <c r="G16" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="41.25" thickBot="1">
       <c r="A17" s="10">
         <v>24</v>
       </c>
@@ -1115,8 +1284,20 @@
       <c r="G17" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="41.25" thickBot="1">
       <c r="A18" s="8">
         <v>25</v>
       </c>
@@ -1138,8 +1319,20 @@
       <c r="G18" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="41.25" thickBot="1">
       <c r="A19" s="10">
         <v>26</v>
       </c>
@@ -1161,8 +1354,20 @@
       <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="41.25" thickBot="1">
       <c r="A20" s="8">
         <v>27</v>
       </c>
@@ -1184,8 +1389,20 @@
       <c r="G20" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="41.25" thickBot="1">
       <c r="A21" s="10">
         <v>28</v>
       </c>
@@ -1207,8 +1424,20 @@
       <c r="G21" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="41.25" thickBot="1">
       <c r="A22" s="8">
         <v>29</v>
       </c>
@@ -1230,8 +1459,20 @@
       <c r="G22" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41.25" thickBot="1">
       <c r="A23" s="10">
         <v>30</v>
       </c>
@@ -1253,8 +1494,20 @@
       <c r="G23" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="41.25" thickBot="1">
       <c r="A24" s="8">
         <v>31</v>
       </c>
@@ -1276,8 +1529,20 @@
       <c r="G24" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="41.25" thickBot="1">
       <c r="A25" s="10">
         <v>32</v>
       </c>
@@ -1299,8 +1564,20 @@
       <c r="G25" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="41.25" thickBot="1">
       <c r="A26" s="8">
         <v>33</v>
       </c>
@@ -1322,8 +1599,20 @@
       <c r="G26" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="41.25" thickBot="1">
       <c r="A27" s="10">
         <v>34</v>
       </c>
@@ -1345,8 +1634,20 @@
       <c r="G27" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="41.25" thickBot="1">
       <c r="A28" s="8">
         <v>35</v>
       </c>
@@ -1368,8 +1669,20 @@
       <c r="G28" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="41.25" thickBot="1">
       <c r="A29" s="10">
         <v>36</v>
       </c>
@@ -1391,8 +1704,20 @@
       <c r="G29" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41.25" thickBot="1">
       <c r="A30" s="8">
         <v>37</v>
       </c>
@@ -1414,31 +1739,55 @@
       <c r="G30" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="41.25" thickBot="1">
       <c r="A31" s="10">
         <v>38</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="16">
-        <v>3</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="14">
+        <v>3</v>
+      </c>
+      <c r="D31" s="14">
         <v>2</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="41.25" thickBot="1">
       <c r="A32" s="8">
         <v>39</v>
       </c>
@@ -1460,31 +1809,55 @@
       <c r="G32" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="41.25" thickBot="1">
+      <c r="H32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="41.25" thickBot="1">
       <c r="A33" s="10">
         <v>40</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="16">
-        <v>3</v>
-      </c>
-      <c r="D33" s="16">
-        <v>3</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="14">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>3</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="41.25" thickBot="1">
+      <c r="H33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="41.25" thickBot="1">
       <c r="A34" s="8">
         <v>41</v>
       </c>
@@ -1506,31 +1879,55 @@
       <c r="G34" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="41.25" thickBot="1">
+      <c r="H34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="41.25" thickBot="1">
       <c r="A35" s="10">
         <v>42</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <v>1</v>
       </c>
-      <c r="D35" s="16">
-        <v>3</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="14">
+        <v>3</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="41.25" thickBot="1">
+      <c r="H35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="41.25" thickBot="1">
       <c r="A36" s="8">
         <v>43</v>
       </c>
@@ -1552,31 +1949,55 @@
       <c r="G36" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="41.25" thickBot="1">
+      <c r="H36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="41.25" thickBot="1">
       <c r="A37" s="10">
         <v>44</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="14">
         <v>1</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <v>2</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="41.25" thickBot="1">
+      <c r="H37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="41.25" thickBot="1">
       <c r="A38" s="8">
         <v>45</v>
       </c>
@@ -1598,16 +2019,35 @@
       <c r="G38" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1"/>
-    <row r="40" spans="1:7" s="12" customFormat="1"/>
-    <row r="41" spans="1:7" s="12" customFormat="1"/>
-    <row r="42" spans="1:7" s="12" customFormat="1"/>
+      <c r="H38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="16.5" thickBot="1">
+      <c r="I39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1"/>
+    <row r="41" spans="1:11" s="12" customFormat="1"/>
+    <row r="42" spans="1:11" s="12" customFormat="1"/>
     <row r="65" s="13" customFormat="1"/>
     <row r="82" s="13" customFormat="1"/>
     <row r="83" s="13" customFormat="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>

--- a/Assignments/Assignment1/A1_Part_3.xlsx
+++ b/Assignments/Assignment1/A1_Part_3.xlsx
@@ -792,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -2032,16 +2032,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="16.5" thickBot="1">
-      <c r="I39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1"/>
     <row r="40" spans="1:11" s="12" customFormat="1"/>
     <row r="41" spans="1:11" s="12" customFormat="1"/>
-    <row r="42" spans="1:11" s="12" customFormat="1"/>
-    <row r="65" s="13" customFormat="1"/>
+    <row r="64" s="13" customFormat="1"/>
+    <row r="81" s="13" customFormat="1"/>
     <row r="82" s="13" customFormat="1"/>
-    <row r="83" s="13" customFormat="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="H4:H5"/>
